--- a/docs/nephronexus/Registries.xlsx
+++ b/docs/nephronexus/Registries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eoin\Dropbox\R projects\nephromancer.github.io\nephronexus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13CF7237-72FE-4449-9679-95E4D14F12EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39C7DDD-3381-4B37-B7AB-3E0203AEA66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9ACFFBE7-D545-4224-8145-DE5B22A2627F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="89">
   <si>
     <t>Registry name</t>
   </si>
@@ -315,26 +315,12 @@
       <t> </t>
     </r>
   </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t>Perhaps another column linking to the registries. would be useful for the webpage if that’s the direction we take it</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,12 +343,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Aptos"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Aptos"/>
       <family val="2"/>
@@ -794,12 +774,19 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E38"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,7 +803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -833,7 +820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -850,7 +837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -867,7 +854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -884,7 +871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -901,7 +888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -918,7 +905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -935,7 +922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
@@ -952,7 +939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -969,7 +956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -986,7 +973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1003,7 +990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
@@ -1020,7 +1007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1037,7 +1024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -1054,7 +1041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
@@ -1071,7 +1058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -1088,7 +1075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>44</v>
       </c>
@@ -1105,7 +1092,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
@@ -1122,7 +1109,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
@@ -1139,7 +1126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>51</v>
       </c>
@@ -1156,7 +1143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>53</v>
       </c>
@@ -1173,7 +1160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>55</v>
       </c>
@@ -1190,7 +1177,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>58</v>
       </c>
@@ -1207,7 +1194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>60</v>
       </c>
@@ -1224,7 +1211,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>63</v>
       </c>
@@ -1241,7 +1228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>65</v>
       </c>
@@ -1258,7 +1245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>67</v>
       </c>
@@ -1275,7 +1262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>69</v>
       </c>
@@ -1292,7 +1279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>71</v>
       </c>
@@ -1309,7 +1296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>73</v>
       </c>
@@ -1326,7 +1313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>75</v>
       </c>
@@ -1343,7 +1330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>77</v>
       </c>
@@ -1360,7 +1347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>79</v>
       </c>
@@ -1377,7 +1364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>81</v>
       </c>
@@ -1394,7 +1381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>83</v>
       </c>
@@ -1411,7 +1398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>86</v>
       </c>
@@ -1428,10 +1415,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>89</v>
-      </c>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
